--- a/EXPORT_FILES/ВУНЦ=П6_Юнармия-24.xlsx
+++ b/EXPORT_FILES/ВУНЦ=П6_Юнармия-24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\TEMPLATE_FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\backend\my-nest\TEMPLATE_FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D83AAED2-2EE8-425E-8068-072526314B41}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{423A8F7C-CE33-4113-9114-1FC1ADCD04B8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView tabRatio="810" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="377">
   <si>
     <t>Количество поступивших в вуз личных дел</t>
   </si>
@@ -1068,102 +1068,6 @@
   </si>
   <si>
     <t>${YA_expulsion_other_БЛП}</t>
-  </si>
-  <si>
-    <t>${YA_access_М}</t>
-  </si>
-  <si>
-    <t>${YA_access_К}</t>
-  </si>
-  <si>
-    <t>${YA_access_А}</t>
-  </si>
-  <si>
-    <t>${YA_access_С}</t>
-  </si>
-  <si>
-    <t>${YA_access_БЛК}</t>
-  </si>
-  <si>
-    <t>${YA_access_РН}</t>
-  </si>
-  <si>
-    <t>${YA_access_РТО}</t>
-  </si>
-  <si>
-    <t>${YA_access_РЭС}</t>
-  </si>
-  <si>
-    <t>${YA_access_СД}</t>
-  </si>
-  <si>
-    <t>${YA_access_АВ}</t>
-  </si>
-  <si>
-    <t>${YA_access_Ф}</t>
-  </si>
-  <si>
-    <t>${YA_access_РЭО}</t>
-  </si>
-  <si>
-    <t>${YA_access_БЛВ}</t>
-  </si>
-  <si>
-    <t>${YA_access_Ш}</t>
-  </si>
-  <si>
-    <t>${YA_access_ДН}</t>
-  </si>
-  <si>
-    <t>${YA_access_ВР}</t>
-  </si>
-  <si>
-    <t>${YA_access_РСБ}</t>
-  </si>
-  <si>
-    <t>${YA_access_Р}</t>
-  </si>
-  <si>
-    <t>${YA_access_РК}</t>
-  </si>
-  <si>
-    <t>${YA_access_КТ}</t>
-  </si>
-  <si>
-    <t>${YA_access_ИБ}</t>
-  </si>
-  <si>
-    <t>${YA_access_АТИ}</t>
-  </si>
-  <si>
-    <t>${YA_access_В}</t>
-  </si>
-  <si>
-    <t>${YA_access_АО}</t>
-  </si>
-  <si>
-    <t>${YA_access_Э}</t>
-  </si>
-  <si>
-    <t>${YA_access_МТ}</t>
-  </si>
-  <si>
-    <t>${YA_access_БЛД}</t>
-  </si>
-  <si>
-    <t>${YA_access_БЛР}</t>
-  </si>
-  <si>
-    <t>${YA_access_БЛС}</t>
-  </si>
-  <si>
-    <t>${YA_access_БЛО}</t>
-  </si>
-  <si>
-    <t>${YA_access_ВПР}</t>
-  </si>
-  <si>
-    <t>${YA_access_БЛП}</t>
   </si>
   <si>
     <t>СВЕДЕНИЯ
@@ -1171,7 +1075,100 @@
 для подготовки офицеров в 2025 году из числа граждан общественного движения "Юнармия"</t>
   </si>
   <si>
-    <t/>
+    <t>${YA_success_М}</t>
+  </si>
+  <si>
+    <t>${YA_success_К}</t>
+  </si>
+  <si>
+    <t>${YA_success_А}</t>
+  </si>
+  <si>
+    <t>${YA_success_С}</t>
+  </si>
+  <si>
+    <t>${YA_success_БЛК}</t>
+  </si>
+  <si>
+    <t>${YA_success_РН}</t>
+  </si>
+  <si>
+    <t>${YA_success_РТО}</t>
+  </si>
+  <si>
+    <t>${YA_success_РЭС}</t>
+  </si>
+  <si>
+    <t>${YA_success_СД}</t>
+  </si>
+  <si>
+    <t>${YA_success_АВ}</t>
+  </si>
+  <si>
+    <t>${YA_success_Ф}</t>
+  </si>
+  <si>
+    <t>${YA_success_РЭО}</t>
+  </si>
+  <si>
+    <t>${YA_success_БЛВ}</t>
+  </si>
+  <si>
+    <t>${YA_success_Ш}</t>
+  </si>
+  <si>
+    <t>${YA_success_ДН}</t>
+  </si>
+  <si>
+    <t>${YA_success_ВР}</t>
+  </si>
+  <si>
+    <t>${YA_success_РСБ}</t>
+  </si>
+  <si>
+    <t>${YA_success_Р}</t>
+  </si>
+  <si>
+    <t>${YA_success_РК}</t>
+  </si>
+  <si>
+    <t>${YA_success_КТ}</t>
+  </si>
+  <si>
+    <t>${YA_success_ИБ}</t>
+  </si>
+  <si>
+    <t>${YA_success_АТИ}</t>
+  </si>
+  <si>
+    <t>${YA_success_В}</t>
+  </si>
+  <si>
+    <t>${YA_success_АО}</t>
+  </si>
+  <si>
+    <t>${YA_success_Э}</t>
+  </si>
+  <si>
+    <t>${YA_success_МТ}</t>
+  </si>
+  <si>
+    <t>${YA_success_БЛД}</t>
+  </si>
+  <si>
+    <t>${YA_success_БЛР}</t>
+  </si>
+  <si>
+    <t>${YA_success_БЛС}</t>
+  </si>
+  <si>
+    <t>${YA_success_БЛО}</t>
+  </si>
+  <si>
+    <t>${YA_success_ВПР}</t>
+  </si>
+  <si>
+    <t>${YA_success_БЛП}</t>
   </si>
 </sst>
 </file>
@@ -1595,161 +1592,126 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1774,13 +1736,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1799,7 +1754,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1820,10 +1802,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ВСП_Т" displayName="ВСП_Т" ref="A1:A33" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6" headerRowCellStyle="Обычный 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ВСП_Т" displayName="ВСП_Т" ref="A1:A33" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1" headerRowCellStyle="Обычный 2">
   <autoFilter ref="A1:A33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Специальности" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Специальности" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2152,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABB43E4-D367-42FE-85C3-01497274CC6C}">
   <dimension ref="A1:AS42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
-      <selection activeCell="B3" sqref="B3:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+      <selection activeCell="AI7" sqref="AI7:AI38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2178,247 +2160,247 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="37.200000000000003" r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
     </row>
     <row customHeight="1" ht="103.5" r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
-        <v>376</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
+      <c r="A2" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
     </row>
     <row customHeight="1" ht="25.5" r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="63" t="s">
+      <c r="E3" s="62"/>
+      <c r="F3" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="49" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="59" t="s">
+      <c r="K3" s="62"/>
+      <c r="L3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="M3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="51" t="s">
+      <c r="N3" s="62"/>
+      <c r="O3" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="70" t="s">
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="AF3" s="54" t="s">
+      <c r="AF3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="69" t="s">
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AI3" s="57" t="s">
+      <c r="AI3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="57"/>
+      <c r="AJ3" s="59"/>
     </row>
     <row customFormat="1" customHeight="1" ht="206.25" r="4" s="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="50" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="50" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50" t="s">
+      <c r="I4" s="75"/>
+      <c r="J4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="56" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="61" t="s">
+      <c r="P4" s="54"/>
+      <c r="Q4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="62"/>
-      <c r="S4" s="61" t="s">
+      <c r="R4" s="54"/>
+      <c r="S4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="62"/>
-      <c r="U4" s="61" t="s">
+      <c r="T4" s="54"/>
+      <c r="U4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="62"/>
-      <c r="W4" s="61" t="s">
+      <c r="V4" s="54"/>
+      <c r="W4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="61" t="s">
+      <c r="X4" s="54"/>
+      <c r="Y4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="61" t="s">
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="72" t="s">
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="56" t="s">
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AG4" s="60" t="s">
+      <c r="AG4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="50" t="s">
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AJ4" s="50" t="s">
+      <c r="AJ4" s="49" t="s">
         <v>21</v>
       </c>
       <c r="AN4" s="31"/>
     </row>
     <row customFormat="1" customHeight="1" ht="72" r="5" s="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="60"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="58"/>
       <c r="O5" s="27" t="s">
         <v>20</v>
       </c>
@@ -2467,19 +2449,19 @@
       <c r="AD5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="50"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="65"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
       <c r="AN5" s="31"/>
     </row>
     <row customHeight="1" ht="21.75" r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="17">
         <f>SUM(C7:C36)</f>
       </c>
@@ -2594,7 +2576,7 @@
         <f>SUM(D7:E7)</f>
       </c>
       <c r="D7" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="45"/>
       <c r="F7" s="30">
@@ -2662,11 +2644,11 @@
       <c r="AH7" s="25">
         <f>SUM(AI7:AJ7)</f>
       </c>
-      <c r="AI7" s="45" t="s">
-        <v>377</v>
+      <c r="AI7" s="45">
+        <v>0</v>
       </c>
       <c r="AJ7" s="8"/>
-      <c r="AK7" s="74"/>
+      <c r="AK7" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -2676,14 +2658,14 @@
         <v>25</v>
       </c>
       <c r="C8" s="22">
-        <f ref="C8:C36" si="4" t="shared">SUM(D8:E8)</f>
+        <f ref="C8:C10" si="4" t="shared">SUM(D8:E8)</f>
       </c>
       <c r="D8" s="45">
         <v>0</v>
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="30">
-        <f ref="F8:F36" si="5" t="shared">SUM(G8:H8)</f>
+        <f ref="F8:F10" si="5" t="shared">SUM(G8:H8)</f>
       </c>
       <c r="G8" s="45">
         <v>0</v>
@@ -2747,11 +2729,11 @@
       <c r="AH8" s="25">
         <f ref="AH8:AH38" si="13" t="shared">SUM(AI8:AJ8)</f>
       </c>
-      <c r="AI8" s="45" t="s">
-        <v>377</v>
+      <c r="AI8" s="45">
+        <v>0</v>
       </c>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="74"/>
+      <c r="AK8" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -2764,21 +2746,21 @@
         <f si="4" t="shared"/>
       </c>
       <c r="D9" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="45"/>
       <c r="F9" s="30">
         <f si="5" t="shared"/>
       </c>
       <c r="G9" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="29">
         <f si="6" t="shared"/>
       </c>
       <c r="J9" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="45"/>
       <c r="L9" s="23">
@@ -2832,11 +2814,11 @@
       <c r="AH9" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI9" s="45" t="s">
-        <v>377</v>
+      <c r="AI9" s="45">
+        <v>0</v>
       </c>
       <c r="AJ9" s="8"/>
-      <c r="AK9" s="74"/>
+      <c r="AK9" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -2917,11 +2899,11 @@
       <c r="AH10" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI10" s="45" t="s">
-        <v>377</v>
+      <c r="AI10" s="45">
+        <v>0</v>
       </c>
       <c r="AJ10" s="8"/>
-      <c r="AK10" s="74"/>
+      <c r="AK10" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
@@ -2934,21 +2916,21 @@
         <f ref="C11:C38" si="14" t="shared">SUM(D11:E11)</f>
       </c>
       <c r="D11" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="45"/>
       <c r="F11" s="30">
         <f ref="F11:F38" si="15" t="shared">SUM(G11:H11)</f>
       </c>
       <c r="G11" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="29">
         <f si="6" t="shared"/>
       </c>
       <c r="J11" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" s="45"/>
       <c r="L11" s="23">
@@ -3002,11 +2984,11 @@
       <c r="AH11" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI11" s="45" t="s">
-        <v>377</v>
+      <c r="AI11" s="45">
+        <v>0</v>
       </c>
       <c r="AJ11" s="8"/>
-      <c r="AK11" s="74"/>
+      <c r="AK11" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
@@ -3019,7 +3001,7 @@
         <f si="14" t="shared"/>
       </c>
       <c r="D12" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="45"/>
       <c r="F12" s="30">
@@ -3087,11 +3069,11 @@
       <c r="AH12" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI12" s="45" t="s">
-        <v>377</v>
+      <c r="AI12" s="45">
+        <v>0</v>
       </c>
       <c r="AJ12" s="8"/>
-      <c r="AK12" s="74"/>
+      <c r="AK12" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
@@ -3172,11 +3154,11 @@
       <c r="AH13" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI13" s="45" t="s">
-        <v>377</v>
+      <c r="AI13" s="45">
+        <v>0</v>
       </c>
       <c r="AJ13" s="8"/>
-      <c r="AK13" s="74"/>
+      <c r="AK13" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
@@ -3257,11 +3239,11 @@
       <c r="AH14" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI14" s="45" t="s">
-        <v>377</v>
+      <c r="AI14" s="45">
+        <v>0</v>
       </c>
       <c r="AJ14" s="8"/>
-      <c r="AK14" s="74"/>
+      <c r="AK14" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
@@ -3342,11 +3324,11 @@
       <c r="AH15" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI15" s="45" t="s">
-        <v>377</v>
+      <c r="AI15" s="45">
+        <v>0</v>
       </c>
       <c r="AJ15" s="8"/>
-      <c r="AK15" s="74"/>
+      <c r="AK15" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
@@ -3359,7 +3341,7 @@
         <f si="14" t="shared"/>
       </c>
       <c r="D16" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="45"/>
       <c r="F16" s="30">
@@ -3427,11 +3409,11 @@
       <c r="AH16" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI16" s="45" t="s">
-        <v>377</v>
+      <c r="AI16" s="45">
+        <v>0</v>
       </c>
       <c r="AJ16" s="8"/>
-      <c r="AK16" s="74"/>
+      <c r="AK16" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
@@ -3512,11 +3494,11 @@
       <c r="AH17" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI17" s="45" t="s">
-        <v>377</v>
+      <c r="AI17" s="45">
+        <v>0</v>
       </c>
       <c r="AJ17" s="8"/>
-      <c r="AK17" s="74"/>
+      <c r="AK17" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
@@ -3597,11 +3579,11 @@
       <c r="AH18" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI18" s="45" t="s">
-        <v>377</v>
+      <c r="AI18" s="45">
+        <v>0</v>
       </c>
       <c r="AJ18" s="8"/>
-      <c r="AK18" s="74"/>
+      <c r="AK18" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
@@ -3682,11 +3664,11 @@
       <c r="AH19" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI19" s="45" t="s">
-        <v>377</v>
+      <c r="AI19" s="45">
+        <v>0</v>
       </c>
       <c r="AJ19" s="8"/>
-      <c r="AK19" s="74"/>
+      <c r="AK19" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
@@ -3699,21 +3681,21 @@
         <f si="14" t="shared"/>
       </c>
       <c r="D20" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="30">
         <f si="15" t="shared"/>
       </c>
       <c r="G20" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="29">
         <f si="6" t="shared"/>
       </c>
       <c r="J20" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="45"/>
       <c r="L20" s="23">
@@ -3767,11 +3749,11 @@
       <c r="AH20" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI20" s="45" t="s">
-        <v>377</v>
+      <c r="AI20" s="45">
+        <v>1</v>
       </c>
       <c r="AJ20" s="8"/>
-      <c r="AK20" s="74"/>
+      <c r="AK20" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
@@ -3852,11 +3834,11 @@
       <c r="AH21" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI21" s="45" t="s">
-        <v>377</v>
+      <c r="AI21" s="45">
+        <v>0</v>
       </c>
       <c r="AJ21" s="8"/>
-      <c r="AK21" s="74"/>
+      <c r="AK21" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
@@ -3937,11 +3919,11 @@
       <c r="AH22" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI22" s="45" t="s">
-        <v>377</v>
+      <c r="AI22" s="45">
+        <v>0</v>
       </c>
       <c r="AJ22" s="8"/>
-      <c r="AK22" s="74"/>
+      <c r="AK22" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
@@ -4022,11 +4004,11 @@
       <c r="AH23" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI23" s="45" t="s">
-        <v>377</v>
+      <c r="AI23" s="45">
+        <v>0</v>
       </c>
       <c r="AJ23" s="8"/>
-      <c r="AK23" s="74"/>
+      <c r="AK23" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
@@ -4107,11 +4089,11 @@
       <c r="AH24" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI24" s="45" t="s">
-        <v>377</v>
+      <c r="AI24" s="45">
+        <v>0</v>
       </c>
       <c r="AJ24" s="8"/>
-      <c r="AK24" s="74"/>
+      <c r="AK24" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
@@ -4192,11 +4174,11 @@
       <c r="AH25" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI25" s="45" t="s">
-        <v>377</v>
+      <c r="AI25" s="45">
+        <v>0</v>
       </c>
       <c r="AJ25" s="8"/>
-      <c r="AK25" s="74"/>
+      <c r="AK25" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
@@ -4277,11 +4259,11 @@
       <c r="AH26" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI26" s="45" t="s">
-        <v>377</v>
+      <c r="AI26" s="45">
+        <v>0</v>
       </c>
       <c r="AJ26" s="8"/>
-      <c r="AK26" s="74"/>
+      <c r="AK26" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
@@ -4362,11 +4344,11 @@
       <c r="AH27" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI27" s="45" t="s">
-        <v>377</v>
+      <c r="AI27" s="45">
+        <v>0</v>
       </c>
       <c r="AJ27" s="8"/>
-      <c r="AK27" s="74"/>
+      <c r="AK27" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
@@ -4447,11 +4429,11 @@
       <c r="AH28" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI28" s="45" t="s">
-        <v>377</v>
+      <c r="AI28" s="45">
+        <v>0</v>
       </c>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="74"/>
+      <c r="AK28" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
@@ -4532,11 +4514,11 @@
       <c r="AH29" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI29" s="45" t="s">
-        <v>377</v>
+      <c r="AI29" s="45">
+        <v>0</v>
       </c>
       <c r="AJ29" s="8"/>
-      <c r="AK29" s="74"/>
+      <c r="AK29" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
@@ -4617,11 +4599,11 @@
       <c r="AH30" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI30" s="45" t="s">
-        <v>377</v>
+      <c r="AI30" s="45">
+        <v>0</v>
       </c>
       <c r="AJ30" s="8"/>
-      <c r="AK30" s="74"/>
+      <c r="AK30" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
@@ -4702,11 +4684,11 @@
       <c r="AH31" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI31" s="45" t="s">
-        <v>377</v>
+      <c r="AI31" s="45">
+        <v>0</v>
       </c>
       <c r="AJ31" s="8"/>
-      <c r="AK31" s="74"/>
+      <c r="AK31" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
@@ -4787,11 +4769,11 @@
       <c r="AH32" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI32" s="45" t="s">
-        <v>377</v>
+      <c r="AI32" s="45">
+        <v>0</v>
       </c>
       <c r="AJ32" s="8"/>
-      <c r="AK32" s="74"/>
+      <c r="AK32" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
@@ -4872,11 +4854,11 @@
       <c r="AH33" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI33" s="45" t="s">
-        <v>377</v>
+      <c r="AI33" s="45">
+        <v>0</v>
       </c>
       <c r="AJ33" s="8"/>
-      <c r="AK33" s="74"/>
+      <c r="AK33" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
@@ -4957,11 +4939,11 @@
       <c r="AH34" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI34" s="45" t="s">
-        <v>377</v>
+      <c r="AI34" s="45">
+        <v>0</v>
       </c>
       <c r="AJ34" s="8"/>
-      <c r="AK34" s="74"/>
+      <c r="AK34" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
@@ -5042,11 +5024,11 @@
       <c r="AH35" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI35" s="45" t="s">
-        <v>377</v>
+      <c r="AI35" s="45">
+        <v>0</v>
       </c>
       <c r="AJ35" s="8"/>
-      <c r="AK35" s="74"/>
+      <c r="AK35" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
@@ -5127,11 +5109,11 @@
       <c r="AH36" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI36" s="45" t="s">
-        <v>377</v>
+      <c r="AI36" s="45">
+        <v>0</v>
       </c>
       <c r="AJ36" s="8"/>
-      <c r="AK36" s="74"/>
+      <c r="AK36" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
@@ -5212,11 +5194,11 @@
       <c r="AH37" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI37" s="45" t="s">
-        <v>377</v>
+      <c r="AI37" s="45">
+        <v>0</v>
       </c>
       <c r="AJ37" s="8"/>
-      <c r="AK37" s="74"/>
+      <c r="AK37" s="47"/>
     </row>
     <row customHeight="1" ht="40.049999999999997" r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
@@ -5297,11 +5279,11 @@
       <c r="AH38" s="25">
         <f si="13" t="shared"/>
       </c>
-      <c r="AI38" s="45" t="s">
-        <v>377</v>
+      <c r="AI38" s="45">
+        <v>0</v>
       </c>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="74"/>
+      <c r="AK38" s="47"/>
       <c r="AM38" s="4"/>
       <c r="AN38" s="5"/>
       <c r="AO38" s="5"/>
@@ -5311,43 +5293,43 @@
       <c r="AS38" s="4"/>
     </row>
     <row customHeight="1" ht="32.25" r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="47"/>
-      <c r="AC39" s="47"/>
-      <c r="AD39" s="47"/>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="47"/>
-      <c r="AG39" s="47"/>
-      <c r="AH39" s="47"/>
-      <c r="AI39" s="47"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
+      <c r="AH39" s="52"/>
+      <c r="AI39" s="52"/>
       <c r="AJ39" s="46"/>
       <c r="AK39" s="6"/>
       <c r="AL39" s="6"/>
@@ -5493,15 +5475,16 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A39:AI39"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="A2:AJ2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="AI3:AJ3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -5518,33 +5501,32 @@
     <mergeCell ref="AE3:AE5"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A39:AI39"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="W4:X4"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="A2:AJ2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="AH6">
-    <cfRule dxfId="4" operator="greaterThan" priority="5" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="8" operator="greaterThan" priority="5" stopIfTrue="1" type="cellIs">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AH38">
-    <cfRule dxfId="3" operator="greaterThan" priority="4" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="7" operator="greaterThan" priority="4" stopIfTrue="1" type="cellIs">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AH38">
-    <cfRule dxfId="2" operator="greaterThan" priority="3" stopIfTrue="1" type="cellIs">
+    <cfRule dxfId="6" operator="greaterThan" priority="3" stopIfTrue="1" type="cellIs">
       <formula>$AE$7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5610,132 +5592,132 @@
       </c>
     </row>
     <row r="8" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="48" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="48" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="48" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="48" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="48" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="48" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="48" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="48" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="48" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="48" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="48" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="48" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="48" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="48" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="48" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="48" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="48" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="48" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="48" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="48" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="48" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="48" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="48" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="48" t="s">
         <v>55</v>
       </c>
     </row>
